--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,26 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Investimento\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD4307-713F-4D19-A0F3-35B0E72D2FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Meses_do_Ano">12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Valor Mensal de Investimento</t>
+  </si>
+  <si>
+    <t>Patrimônio Acumulado</t>
+  </si>
+  <si>
+    <t>Dividendo mensal</t>
+  </si>
+  <si>
+    <t>Taxa de Rendimento Mensal</t>
+  </si>
+  <si>
+    <t>Tempo de Investimento (Anos)</t>
+  </si>
+  <si>
+    <t>Valor Total Investido</t>
+  </si>
+  <si>
+    <t>Rendimento da Carteira</t>
+  </si>
+  <si>
+    <t>Simulador de Investimentos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +81,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +145,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="0" xr9:uid="{0929989F-D41E-42A3-96FF-97029E3DF436}"/>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +464,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B6*B8*Meses_do_Ano</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B6*(((1+B7)^(B8*Meses_do_Ano-1))/B7)</f>
+        <v>166229.84707528335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6">
+        <f>B13*B11</f>
+        <v>997.37908245170013</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>